--- a/examples/test_functions/data/data.xlsx
+++ b/examples/test_functions/data/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6BDEF4-6481-43E6-A41F-7EC761A5C1CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0702A145-D3C1-4102-B0C0-9F643F55FCD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -14,18 +14,20 @@
     <sheet name="Connections" sheetId="1" r:id="rId4"/>
     <sheet name="ConnectionsExisting" sheetId="2" r:id="rId5"/>
     <sheet name="Demand" sheetId="3" r:id="rId6"/>
-    <sheet name="DiscountRateGlobal" sheetId="5" r:id="rId7"/>
-    <sheet name="DiscountRateTech" sheetId="19" r:id="rId8"/>
-    <sheet name="Emission" sheetId="20" r:id="rId9"/>
-    <sheet name="Fuels" sheetId="6" r:id="rId10"/>
-    <sheet name="FuelsExisting" sheetId="7" r:id="rId11"/>
-    <sheet name="PowerPlants" sheetId="8" r:id="rId12"/>
-    <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId13"/>
-    <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId14"/>
-    <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId15"/>
-    <sheet name="PowerPlantsExisting" sheetId="11" r:id="rId16"/>
-    <sheet name="ReserveMargin" sheetId="13" r:id="rId17"/>
-    <sheet name="capacityFactorTOD" sheetId="14" r:id="rId18"/>
+    <sheet name="DemandTOD" sheetId="21" r:id="rId7"/>
+    <sheet name="DiscountRateGlobal" sheetId="5" r:id="rId8"/>
+    <sheet name="DiscountRateTech" sheetId="19" r:id="rId9"/>
+    <sheet name="Emission" sheetId="20" r:id="rId10"/>
+    <sheet name="Fuels" sheetId="6" r:id="rId11"/>
+    <sheet name="FuelsExisting" sheetId="7" r:id="rId12"/>
+    <sheet name="PowerPlants" sheetId="8" r:id="rId13"/>
+    <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId14"/>
+    <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId15"/>
+    <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId16"/>
+    <sheet name="PowerPlantsExisting" sheetId="11" r:id="rId17"/>
+    <sheet name="MinCapacity" sheetId="22" r:id="rId18"/>
+    <sheet name="ReserveMargin" sheetId="13" r:id="rId19"/>
+    <sheet name="capacityFactorTOD" sheetId="14" r:id="rId20"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="253">
   <si>
     <t>connection</t>
   </si>
@@ -781,6 +783,21 @@
   </si>
   <si>
     <t>LastBuild</t>
+  </si>
+  <si>
+    <t>Ref_DiscountRate</t>
+  </si>
+  <si>
+    <t>[fraction of representativeDay demand]</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>MinCapacity</t>
+  </si>
+  <si>
+    <t>Ref_MinCapacity</t>
   </si>
 </sst>
 </file>
@@ -822,7 +839,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,19 +848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,9 +866,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -894,15 +898,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1211,22 +1213,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1254,7 +1256,7 @@
       <c r="A3" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1262,7 +1264,7 @@
       <c r="A4" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1273,7 +1275,7 @@
       <c r="C5" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1292,7 +1294,7 @@
       <c r="C7" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1300,7 +1302,7 @@
       <c r="A8" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1316,7 +1318,7 @@
       <c r="A10" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1338,7 +1340,7 @@
       <c r="A12" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1346,7 +1348,7 @@
       <c r="A13" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1354,7 +1356,7 @@
       <c r="A14" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1370,7 +1372,7 @@
       <c r="A16" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1378,7 +1380,7 @@
       <c r="A17" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1386,7 +1388,7 @@
       <c r="A18" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>218</v>
       </c>
     </row>
@@ -1394,7 +1396,7 @@
       <c r="A19" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1402,7 +1404,7 @@
       <c r="A20" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1410,7 +1412,7 @@
       <c r="A21" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1418,7 +1420,7 @@
       <c r="A22" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1426,7 +1428,7 @@
       <c r="A23" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1465,11 +1467,66 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F44819-0382-4850-9146-7C529C159FEB}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:S11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1484,56 +1541,71 @@
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1543,44 +1615,56 @@
       <c r="C2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -1590,21 +1674,30 @@
       <c r="C3">
         <v>2.66</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H3" s="3">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2">
         <v>40</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -1614,23 +1707,32 @@
       <c r="C4">
         <v>2.7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H4">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
         <v>90.37</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>40</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -1640,57 +1742,88 @@
       <c r="C5">
         <v>2.8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H5">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
         <v>69.34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>40</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>96</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2">
         <v>40</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>125</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
         <v>39.51</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>40</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -1700,23 +1833,32 @@
       <c r="C8">
         <v>3.05</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H8">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
         <v>67.58</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>40</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -1726,52 +1868,68 @@
       <c r="C9">
         <v>2.0699999999999998</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>63.3</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>3</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>50.3</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>40</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="M9">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2">
         <v>2021</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <v>2026</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>94</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
         <v>40</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -1791,12 +1949,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1805,27 +1963,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D2" t="s">
@@ -1833,13 +1991,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>1920</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>2015</v>
       </c>
     </row>
@@ -1848,13 +2006,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:J14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1867,60 +2023,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>77</v>
       </c>
       <c r="I2" t="s">
@@ -1931,314 +2087,314 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="21" t="s">
         <v>129</v>
       </c>
       <c r="J14">
@@ -2246,236 +2402,236 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>129</v>
       </c>
       <c r="J23">
@@ -2483,132 +2639,132 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2628,13 +2784,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2650,798 +2804,810 @@
     <col min="13" max="13" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="K2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
         <v>75.97</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>1.919</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11">
         <v>19.599999999999998</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>2.8380000000000001</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11">
         <v>24.633333333333336</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>0.99299999999999999</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
         <v>30.57</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>0.59699999999999998</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="8"/>
+      <c r="J6" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>34.31</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>0.72199999999999998</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
         <v>45.56</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>1.0289999999999999</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="8"/>
+      <c r="J8" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>3935</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>43</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>0</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="12" t="s">
+      <c r="I9" s="8"/>
+      <c r="J9" s="11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11">
         <v>425.4</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>2.6309999999999998</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9" t="s">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="10">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="9">
         <v>18.100000000000001</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>0</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="11" t="s">
+      <c r="I11" s="8"/>
+      <c r="J11" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
         <v>13</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="12" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>0</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="12" t="s">
+      <c r="I12" s="8"/>
+      <c r="J12" s="11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6">
         <v>42</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="12" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="26">
         <v>0</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="12" t="s">
+      <c r="I13" s="26"/>
+      <c r="J13" s="11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>1284</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>-4</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>32.1</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>-5</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>0</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <v>0</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="21" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>3749</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>-4</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>112</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>-5</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>1.67</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <v>-6</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="21" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>3644</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>-4</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>33</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>-5</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>1.39</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <v>-6</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>952</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>-4</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="23">
+      <c r="D17" s="24"/>
+      <c r="E17" s="22">
         <v>1</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>-5</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>11.33</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>-6</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="21" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>952</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <v>-4</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="23">
+      <c r="D18" s="24"/>
+      <c r="E18" s="22">
         <v>1</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>-5</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>11.33</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <v>-6</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="21" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>612.6</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="25">
         <v>-4</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="26">
+      <c r="D19" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="25">
         <v>11</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>-5</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>0.83299999999999996</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <v>-6</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <v>188.3</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="22">
         <v>-4</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="23">
+      <c r="D20" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="22">
         <v>12</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>-5</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <v>1.944</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <v>-6</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>1060</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="22">
         <v>-4</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>13</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>-5</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <v>0</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <v>0</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>1494</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>-4</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>42</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>-5</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>0</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>0</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>1284</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>-4</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>32.1</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>-5</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="26">
         <v>0</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="26">
         <v>0</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>3749</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>-4</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>112</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>-5</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="26">
         <v>1.67</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="26">
         <v>-6</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>860.9</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>-4</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="6">
         <v>11</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>-5</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="26">
         <v>0.83299999999999996</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="26">
         <v>-6</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>305.2</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>-4</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="D26" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="6">
         <v>12</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>-5</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="26">
         <v>1.944</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="26">
         <v>-6</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>1060</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>-4</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>13</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>-5</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <v>0</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>0</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>1494</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>-4</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>42</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>-5</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <v>0</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>0</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3449,7 +3615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -3469,696 +3635,696 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>91.4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>34.799999999999997</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="6">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="5">
         <v>75</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>76</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>29.9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="7">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="6">
         <v>50</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>80</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>40</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="7">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="6">
         <v>50</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>89</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>35.299999999999997</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="7">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="6">
         <v>55</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>58</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>34.6</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="6">
         <v>65</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>78.5</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>34.1</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="7">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="6">
         <v>65</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>63</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>36.799999999999997</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="6">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="5">
         <v>100</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>56</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>19</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="6">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="5">
         <v>45</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>93</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>45.5</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="6">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="5">
         <v>55</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>22</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>36.799999999999997</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="6">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="5">
         <v>30</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>31</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>36.799999999999997</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="6">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="5">
         <v>30</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>50</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21">
         <v>85</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21">
         <v>15</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>56</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>25.3</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22">
         <v>45</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>85</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="24">
         <v>38.799999999999997</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22">
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21">
         <v>75</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>87</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="24">
         <v>51.7</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22">
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
         <v>55</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>87</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="24">
         <v>51.7</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22">
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21">
         <v>55</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="23">
         <v>87</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>62.02</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22">
+      <c r="E19" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21">
         <v>55</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>30</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>42.47</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23">
+      <c r="E20" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22">
         <v>55</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>22</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>36.799999999999997</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22">
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21">
         <v>30</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>31</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>36.799999999999997</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22">
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21">
         <v>30</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>50</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="9">
+      <c r="C23" s="5"/>
+      <c r="D23" s="8">
         <v>85</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8">
         <v>15</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>56</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>25.3</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9">
+      <c r="F24" s="5"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8">
         <v>45</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>87</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>54.17</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="6">
+      <c r="E25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="5">
         <v>55</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>30</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>37.6</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9">
+      <c r="E26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8">
         <v>55</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>22</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>36.799999999999997</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9">
+      <c r="F27" s="5"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8">
         <v>30</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>31</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>36.799999999999997</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9">
+      <c r="F28" s="5"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8">
         <v>30</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="8" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4168,13 +4334,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4191,34 +4355,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="3" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4232,7 +4396,7 @@
       <c r="C2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E2" t="s">
@@ -4244,88 +4408,88 @@
       <c r="G2" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>0.01</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0.93</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>0.67</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>0.73</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>0.92</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9">
         <v>102.7</v>
       </c>
@@ -4334,45 +4498,45 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24">
         <v>20</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="24"/>
       <c r="H14">
         <v>2026</v>
       </c>
@@ -4384,148 +4548,148 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="25">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="24">
         <v>290</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
       <c r="J15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="24">
         <v>0.01</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
       <c r="J16" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="24">
         <v>0.93</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="J17" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <v>0.93</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
       <c r="J18" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>1</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
       <c r="J19" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
       <c r="J20" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24">
         <v>705.6</v>
       </c>
-      <c r="G21" s="25"/>
+      <c r="G21" s="24"/>
       <c r="J21" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24">
         <v>71.64</v>
       </c>
-      <c r="G22" s="25"/>
+      <c r="G22" s="24"/>
       <c r="J22" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D24">
@@ -4536,23 +4700,23 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>1</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>133</v>
       </c>
       <c r="F27">
@@ -4560,10 +4724,10 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>71.64</v>
       </c>
     </row>
@@ -4573,13 +4737,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4589,16 +4751,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4606,7 +4768,7 @@
       <c r="A2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>147</v>
       </c>
       <c r="C2" t="s">
@@ -4617,338 +4779,338 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>454</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>2002</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>378</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>1973</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>247.5</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>1997</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>220</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>2009</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>296</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>1975</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>296</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>1976</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>440</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>2008</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>900</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>1971</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>85</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>1960</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>85</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>1962</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>410</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>1969</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>410</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>1972</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>170</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>1959</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>200</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>1964</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>100</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>1965</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>100</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>1966</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>216</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>1967</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>216</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>1968</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>100</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>1953</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>2.4</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>2015</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>507</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>2000</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>22.1</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>2012</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <v>30</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>2015</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>102</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>2012</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4958,7 +5120,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB94AB1C-AA63-4D03-BFF0-AB1AB7BB172A}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4974,10 +5184,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4999,13 +5209,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3">
+        <v>0.53</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4">
+        <v>0.47</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5016,19 +5287,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5050,13 +5321,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>184</v>
       </c>
       <c r="D3">
@@ -5067,13 +5338,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>185</v>
       </c>
       <c r="D4">
@@ -5084,13 +5355,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>186</v>
       </c>
       <c r="D5">
@@ -5101,13 +5372,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>187</v>
       </c>
       <c r="D6">
@@ -5118,13 +5389,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>188</v>
       </c>
       <c r="D7">
@@ -5135,13 +5406,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>189</v>
       </c>
       <c r="D8">
@@ -5152,13 +5423,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>190</v>
       </c>
       <c r="D9">
@@ -5169,13 +5440,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>191</v>
       </c>
       <c r="D10">
@@ -5186,13 +5457,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>192</v>
       </c>
       <c r="D11">
@@ -5203,13 +5474,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D12">
@@ -5220,13 +5491,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D13">
@@ -5237,13 +5508,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>50</v>
       </c>
       <c r="D14">
@@ -5254,13 +5525,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D15">
@@ -5271,13 +5542,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D16">
@@ -5288,13 +5559,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D17">
@@ -5305,13 +5576,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D18">
@@ -5322,13 +5593,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D19">
@@ -5339,13 +5610,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D20">
@@ -5356,13 +5627,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D21">
@@ -5373,13 +5644,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B22" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D22">
@@ -5390,13 +5661,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B23" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D23">
@@ -5407,13 +5678,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B24" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D24">
@@ -5424,13 +5695,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B25" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D25">
@@ -5441,13 +5712,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B26" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>84</v>
       </c>
       <c r="D26">
@@ -5458,13 +5729,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B27" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>184</v>
       </c>
       <c r="D27">
@@ -5475,13 +5746,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B28" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>185</v>
       </c>
       <c r="D28">
@@ -5492,13 +5763,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B29" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>186</v>
       </c>
       <c r="D29">
@@ -5509,13 +5780,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B30" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>187</v>
       </c>
       <c r="D30">
@@ -5526,13 +5797,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B31" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>188</v>
       </c>
       <c r="D31">
@@ -5543,13 +5814,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B32" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>189</v>
       </c>
       <c r="D32">
@@ -5560,13 +5831,13 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B33" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>190</v>
       </c>
       <c r="D33">
@@ -5577,13 +5848,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B34" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>191</v>
       </c>
       <c r="D34">
@@ -5594,13 +5865,13 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B35" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="20" t="s">
         <v>192</v>
       </c>
       <c r="D35">
@@ -5611,13 +5882,13 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B36" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D36">
@@ -5628,13 +5899,13 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B37" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D37">
@@ -5645,13 +5916,13 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B38" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>50</v>
       </c>
       <c r="D38">
@@ -5662,13 +5933,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B39" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D39">
@@ -5679,13 +5950,13 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B40" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D40">
@@ -5696,13 +5967,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B41" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D41">
@@ -5713,13 +5984,13 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D42">
@@ -5730,13 +6001,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B43" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D43">
@@ -5747,13 +6018,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B44" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D44">
@@ -5764,13 +6035,13 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B45" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D45">
@@ -5781,13 +6052,13 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B46" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D46">
@@ -5798,13 +6069,13 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B47" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D47">
@@ -5815,13 +6086,13 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B48" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D48">
@@ -5832,13 +6103,13 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B49" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D49">
@@ -5849,13 +6120,13 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B50" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="20" t="s">
         <v>84</v>
       </c>
       <c r="D50">
@@ -5866,13 +6137,13 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B51" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="20" t="s">
         <v>184</v>
       </c>
       <c r="D51">
@@ -5883,13 +6154,13 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B52" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="20" t="s">
         <v>185</v>
       </c>
       <c r="D52">
@@ -5900,13 +6171,13 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B53" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="20" t="s">
         <v>186</v>
       </c>
       <c r="D53">
@@ -5917,13 +6188,13 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B54" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="20" t="s">
         <v>187</v>
       </c>
       <c r="D54">
@@ -5934,13 +6205,13 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B55" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="20" t="s">
         <v>188</v>
       </c>
       <c r="D55">
@@ -5951,13 +6222,13 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B56" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="20" t="s">
         <v>189</v>
       </c>
       <c r="D56">
@@ -5968,13 +6239,13 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="20" t="s">
         <v>190</v>
       </c>
       <c r="D57">
@@ -5985,13 +6256,13 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B58" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="20" t="s">
         <v>191</v>
       </c>
       <c r="D58">
@@ -6002,13 +6273,13 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B59" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="20" t="s">
         <v>192</v>
       </c>
       <c r="D59">
@@ -6019,13 +6290,13 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B60" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D60">
@@ -6036,13 +6307,13 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B61" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D61">
@@ -6053,13 +6324,13 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B62" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="20" t="s">
         <v>50</v>
       </c>
       <c r="D62">
@@ -6070,13 +6341,13 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B63" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D63">
@@ -6087,13 +6358,13 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B64" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D64">
@@ -6104,13 +6375,13 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B65" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D65">
@@ -6121,13 +6392,13 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B66" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D66">
@@ -6138,13 +6409,13 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B67" t="s">
         <v>82</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D67">
@@ -6155,13 +6426,13 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B68" t="s">
         <v>82</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D68">
@@ -6172,13 +6443,13 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B69" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D69">
@@ -6189,13 +6460,13 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B70" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D70">
@@ -6206,13 +6477,13 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B71" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D71">
@@ -6223,13 +6494,13 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B72" t="s">
         <v>82</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D72">
@@ -6240,13 +6511,13 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B73" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D73">
@@ -6257,13 +6528,13 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B74" t="s">
         <v>82</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="20" t="s">
         <v>84</v>
       </c>
       <c r="D74">
@@ -6274,13 +6545,13 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B75" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="20" t="s">
         <v>184</v>
       </c>
       <c r="D75">
@@ -6291,13 +6562,13 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B76" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="20" t="s">
         <v>185</v>
       </c>
       <c r="D76">
@@ -6308,13 +6579,13 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B77" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="20" t="s">
         <v>186</v>
       </c>
       <c r="D77">
@@ -6325,13 +6596,13 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B78" t="s">
         <v>83</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="20" t="s">
         <v>187</v>
       </c>
       <c r="D78">
@@ -6342,13 +6613,13 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B79" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="20" t="s">
         <v>188</v>
       </c>
       <c r="D79">
@@ -6359,13 +6630,13 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B80" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="20" t="s">
         <v>189</v>
       </c>
       <c r="D80">
@@ -6376,13 +6647,13 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B81" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="20" t="s">
         <v>190</v>
       </c>
       <c r="D81">
@@ -6393,13 +6664,13 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="20" t="s">
         <v>191</v>
       </c>
       <c r="D82">
@@ -6410,13 +6681,13 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B83" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="20" t="s">
         <v>192</v>
       </c>
       <c r="D83">
@@ -6427,13 +6698,13 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B84" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D84">
@@ -6444,13 +6715,13 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B85" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D85">
@@ -6461,13 +6732,13 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B86" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="20" t="s">
         <v>50</v>
       </c>
       <c r="D86">
@@ -6478,13 +6749,13 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B87" t="s">
         <v>83</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D87">
@@ -6495,13 +6766,13 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B88" t="s">
         <v>83</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D88">
@@ -6512,13 +6783,13 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D89">
@@ -6529,13 +6800,13 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B90" t="s">
         <v>83</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D90">
@@ -6546,13 +6817,13 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B91" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D91">
@@ -6563,13 +6834,13 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B92" t="s">
         <v>83</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D92">
@@ -6580,13 +6851,13 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B93" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D93">
@@ -6597,13 +6868,13 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B94" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D94">
@@ -6614,13 +6885,13 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B95" t="s">
         <v>83</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D95">
@@ -6631,13 +6902,13 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>83</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D96">
@@ -6648,13 +6919,13 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>83</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D97">
@@ -6665,13 +6936,13 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B98" t="s">
         <v>83</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="20" t="s">
         <v>84</v>
       </c>
       <c r="D98">
@@ -6687,365 +6958,225 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3">
-        <v>0.53</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4">
-        <v>0.47</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>184</v>
       </c>
       <c r="B3">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="C3">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>185</v>
       </c>
       <c r="B4">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="C4">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>186</v>
       </c>
       <c r="B5">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="C5">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>187</v>
       </c>
       <c r="B6">
-        <v>3.5700000000000003E-2</v>
-      </c>
-      <c r="C6">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>188</v>
       </c>
       <c r="B7">
-        <v>3.5700000000000003E-2</v>
-      </c>
-      <c r="C7">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>189</v>
       </c>
       <c r="B8">
-        <v>3.6900000000000002E-2</v>
-      </c>
-      <c r="C8">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>190</v>
       </c>
       <c r="B9">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="C9">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>191</v>
       </c>
       <c r="B10">
-        <v>3.85E-2</v>
-      </c>
-      <c r="C10">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>192</v>
       </c>
       <c r="B11">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="C11">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
       <c r="B12">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="C12">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
       <c r="B13">
-        <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="C13">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
       <c r="B14">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="C14">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
       <c r="B15">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="C15">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
       <c r="B16">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="C16">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>53</v>
       </c>
       <c r="B17">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="C17">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>54</v>
       </c>
       <c r="B18">
-        <v>4.3700000000000003E-2</v>
-      </c>
-      <c r="C18">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
       <c r="B19">
-        <v>4.36E-2</v>
-      </c>
-      <c r="C19">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
       <c r="B20">
-        <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="C20">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>57</v>
       </c>
       <c r="B21">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C21">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>58</v>
       </c>
       <c r="B22">
-        <v>4.7E-2</v>
-      </c>
-      <c r="C22">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>59</v>
       </c>
       <c r="B23">
-        <v>4.6399999999999997E-2</v>
-      </c>
-      <c r="C23">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
       <c r="B24">
-        <v>4.58E-2</v>
-      </c>
-      <c r="C24">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>61</v>
       </c>
       <c r="B25">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="C25">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="3">
-        <v>4.159999999999997E-2</v>
-      </c>
-      <c r="C26" s="3">
-        <f>1-SUM(C3:C25)</f>
+      <c r="B26" s="2">
+        <f>1-SUM(B3:B25)</f>
         <v>4.1658999999999891E-2</v>
       </c>
     </row>
@@ -7056,10 +7187,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7072,61 +7203,68 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="12" max="13" width="13.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="P1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="Q1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="R1" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -7142,41 +7280,47 @@
       <c r="E2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="P2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="Q2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="R2" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -7192,33 +7336,37 @@
       <c r="E3" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0.86</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>2084.1332580463013</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>2</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="N3">
+      <c r="P3" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>196</v>
       </c>
@@ -7234,29 +7382,33 @@
       <c r="E4" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
         <v>688.39634941329859</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>2</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2">
         <v>30</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="O4">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>201</v>
       </c>
@@ -7272,30 +7424,35 @@
       <c r="E5" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>323.88212908717634</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2">
         <v>30</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -7311,30 +7468,35 @@
       <c r="E6" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>539.80354847862725</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>2</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2">
         <v>30</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -7347,14 +7509,25 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
         <v>30</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -7370,26 +7543,33 @@
       <c r="E8" t="s">
         <v>183</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>4531.3620000000001</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
         <v>30</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>199</v>
       </c>
@@ -7405,26 +7585,33 @@
       <c r="E9" t="s">
         <v>183</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>7746.9369999999999</v>
       </c>
-      <c r="K9" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2">
         <v>30</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>204</v>
       </c>
@@ -7437,23 +7624,31 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>100</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="L10">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2">
         <v>30</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -7466,23 +7661,31 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>100</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="L11">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2">
         <v>30</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>212</v>
       </c>
@@ -7495,23 +7698,31 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>100</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="L12">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2">
         <v>30</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -7524,23 +7735,31 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>100</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="L13">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2">
         <v>30</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -7553,21 +7772,44 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>100</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="L14">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2">
         <v>30</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7590,16 +7832,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7683,7 +7925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
@@ -7694,16 +7936,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7725,7 +7967,7 @@
       <c r="A3">
         <v>2016</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>75.239999999999995</v>
       </c>
       <c r="C3" t="s">
@@ -7739,7 +7981,7 @@
       <c r="A4">
         <v>2021</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>66.999600000000001</v>
       </c>
       <c r="C4" t="s">
@@ -7753,7 +7995,7 @@
       <c r="A5">
         <v>2026</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>66.103200000000001</v>
       </c>
       <c r="C5" t="s">
@@ -7767,7 +8009,7 @@
       <c r="A6">
         <v>2031</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>65.77</v>
       </c>
       <c r="C6" t="s">
@@ -7781,7 +8023,7 @@
       <c r="A7">
         <v>2036</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>65.47</v>
       </c>
       <c r="C7" t="s">
@@ -7795,7 +8037,7 @@
       <c r="A8">
         <v>2041</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>65.41</v>
       </c>
       <c r="C8" t="s">
@@ -7812,11 +8054,579 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4A53B4-3A9F-47A3-9B62-598D4BFD3FBB}">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3">
+        <v>3.9199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5">
+        <v>3.6400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6">
+        <v>3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7">
+        <v>3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8">
+        <v>3.6900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9">
+        <v>3.8600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10">
+        <v>3.85E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11">
+        <v>4.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>4.2099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>4.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17">
+        <v>4.3799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>4.3700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>4.36E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>4.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23">
+        <v>4.6399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <v>4.58E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4.159999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27">
+        <v>3.9199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29">
+        <v>3.6400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30">
+        <v>3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31">
+        <v>3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32">
+        <v>3.6900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33">
+        <v>3.8600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34">
+        <v>3.85E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35">
+        <v>4.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>4.2099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>4.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>4.3799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42">
+        <v>4.3700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43">
+        <v>4.36E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44">
+        <v>4.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47">
+        <v>4.6399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48">
+        <v>4.58E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="2">
+        <v>4.159999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7826,10 +8636,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7854,7 +8664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE35283-3BE3-4F5A-8433-3D888AE7F852}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -7865,16 +8675,16 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7890,55 +8700,6 @@
       </c>
       <c r="D2" t="s">
         <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F44819-0382-4850-9146-7C529C159FEB}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E12:E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E2" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/examples/test_functions/data/data.xlsx
+++ b/examples/test_functions/data/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0702A145-D3C1-4102-B0C0-9F643F55FCD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDE9C2C-0463-4BA2-BB89-FF36B7FE239C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="254">
   <si>
     <t>connection</t>
   </si>
@@ -798,6 +798,9 @@
   </si>
   <si>
     <t>Ref_MinCapacity</t>
+  </si>
+  <si>
+    <t>CapacityCreditIncr</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -2008,9 +2011,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2019,10 +2024,12 @@
     <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2048,13 +2055,16 @@
         <v>181</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -2080,13 +2090,16 @@
         <v>77</v>
       </c>
       <c r="I2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J2" t="s">
         <v>220</v>
       </c>
-      <c r="J2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>105</v>
       </c>
@@ -2112,7 +2125,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
@@ -2138,7 +2151,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>107</v>
       </c>
@@ -2164,7 +2177,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>108</v>
       </c>
@@ -2190,7 +2203,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>109</v>
       </c>
@@ -2216,7 +2229,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>110</v>
       </c>
@@ -2242,7 +2255,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>111</v>
       </c>
@@ -2268,7 +2281,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>112</v>
       </c>
@@ -2294,7 +2307,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>113</v>
       </c>
@@ -2320,7 +2333,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>114</v>
       </c>
@@ -2346,7 +2359,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>115</v>
       </c>
@@ -2372,7 +2385,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>116</v>
       </c>
@@ -2397,11 +2410,11 @@
       <c r="H14" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="J14">
+      <c r="I14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>117</v>
       </c>
@@ -2427,7 +2440,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>214</v>
       </c>
@@ -2453,7 +2466,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>215</v>
       </c>
@@ -2479,7 +2492,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>217</v>
       </c>
@@ -2505,7 +2518,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>118</v>
       </c>
@@ -2531,7 +2544,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>119</v>
       </c>
@@ -2557,7 +2570,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>120</v>
       </c>
@@ -2583,7 +2596,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>121</v>
       </c>
@@ -2609,7 +2622,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>130</v>
       </c>
@@ -2634,11 +2647,11 @@
       <c r="H23" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="J23">
+      <c r="I23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>131</v>
       </c>
@@ -2664,7 +2677,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>193</v>
       </c>
@@ -2690,7 +2703,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>132</v>
       </c>
@@ -2716,7 +2729,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>133</v>
       </c>
@@ -2742,7 +2755,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>134</v>
       </c>
